--- a/data/homepage/about.xlsx
+++ b/data/homepage/about.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yang/Documents/GitHub/CSS-Laboratory.github.io/data/homepage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D80ED-82E2-964F-AFAA-41891B69647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0938F3-B822-4549-9E4D-B7E430B9B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28140" yWindow="3240" windowWidth="27900" windowHeight="16860" xr2:uid="{E520A067-84A4-2A40-9FBF-4ABEB11F9493}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>Innovating at the Intersection of Social Science and Data</t>
   </si>
   <si>
-    <t>Welcome to the Computational Social Science (CSS) Lab at Shibaura Institute of Technology! We are a dynamic research group dedicated to unraveling the complexities of human behavior and societal dynamics. Our core mission is to forge a powerful synergy between established social science theories and cutting-edge computational methodologies. By leveraging advanced data science techniques—including machine learning, Large Language Models (LLMs), intricate network analysis, and sophisticated social simulations—we delve deep into complex social phenomena to uncover meaningful insights.</t>
-  </si>
-  <si>
     <t>The ambition to understand society through rigorous, data-informed methods has been a cornerstone of social science since its inception. Today, fueled by unprecedented access to vast digital datasets and powerful analytical tools, our field stands at an exhilarating frontier. At the CSS Lab, we embrace this opportunity, recognizing that true innovation emerges from the thoughtful integration of diverse perspectives. We are committed to fostering an interdisciplinary and experimental environment where social scientists, data scientists, engineers, and thinkers from all backgrounds can collaborate, challenge conventions, and co-create knowledge.</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Our research isn't confined to academic journals; we are passionate about translating our discoveries into tangible applications that address pressing real-world challenges. We explore critical areas such as the formation of collective opinions on platforms like Yahoo! News and Wikipedia, the evolution of popular culture through analysis of media like manga and YouTube trends, the ethical and effective application of Large Language Models to accelerate social inquiry, and the development of foundational machine learning techniques and large-scale datasets to empower the wider research community.</t>
+  </si>
+  <si>
+    <t>Welcome to Shibaura Institute of Technology's Computational Social Science (CSS) Lab!  Our multidisciplinary research team is committed to understanding the complex nature of social dynamics and human behavior.  Our main goal is to create an effective synergy between state-of-the-art computational methods and well-established social science theories.  We explore intricate social phenomena to find significant insights by utilizing cutting-edge data science techniques, such as machine learning, Large Language Models (LLMs), complex network analysis, and sophisticated social simulations.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,29 +457,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
